--- a/results/mp/tinybert/corona/confidence/210/topk-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/topk-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="72">
   <si>
     <t>anchor score</t>
   </si>
@@ -58,114 +58,135 @@
     <t>low</t>
   </si>
   <si>
+    <t>stop</t>
+  </si>
+  <si>
     <t>no</t>
   </si>
   <si>
-    <t>demand</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>thank</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>heroes</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>hand</t>
+    <t>help</t>
+  </si>
+  <si>
+    <t>care</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>increase</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>increase</t>
+    <t>online</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>our</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>your</t>
   </si>
   <si>
     <t>store</t>
   </si>
   <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>_</t>
+    <t>!</t>
+  </si>
+  <si>
+    <t>,</t>
   </si>
   <si>
     <t>you</t>
   </si>
   <si>
-    <t>!</t>
-  </si>
-  <si>
     <t>19</t>
   </si>
   <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>as</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
     <t>and</t>
   </si>
   <si>
@@ -175,28 +196,40 @@
     <t>grocery</t>
   </si>
   <si>
-    <t>,</t>
+    <t>.</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>are</t>
+  </si>
+  <si>
+    <t>co</t>
   </si>
   <si>
     <t>the</t>
   </si>
   <si>
-    <t>.</t>
+    <t>of</t>
+  </si>
+  <si>
+    <t>to</t>
   </si>
   <si>
     <t>a</t>
   </si>
   <si>
-    <t>of</t>
+    <t>in</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
   <si>
     <t>corona</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>to</t>
   </si>
 </sst>
 </file>
@@ -554,7 +587,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q46"/>
+  <dimension ref="A1:Q57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -565,7 +598,7 @@
         <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -623,13 +656,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.92</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C3">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -641,19 +674,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -665,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -673,13 +706,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7402597402597403</v>
+        <v>0.6678082191780822</v>
       </c>
       <c r="C4">
-        <v>114</v>
+        <v>195</v>
       </c>
       <c r="D4">
-        <v>114</v>
+        <v>195</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -691,19 +724,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K4">
-        <v>0.96875</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -715,7 +748,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -723,13 +756,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -741,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K5">
-        <v>0.8823529411764706</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L5">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="M5">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -765,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -773,13 +806,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.48068669527897</v>
+        <v>0.2655038759689923</v>
       </c>
       <c r="C6">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="D6">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -791,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>121</v>
+        <v>379</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L6">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="M6">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -815,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -823,13 +856,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3023255813953488</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="C7">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="D7">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -841,19 +874,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>60</v>
+        <v>144</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K7">
-        <v>0.875</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L7">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="M7">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -865,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -873,13 +906,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.2875</v>
+        <v>0.1677852348993289</v>
       </c>
       <c r="C8">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -891,19 +924,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>57</v>
+        <v>124</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K8">
-        <v>0.875</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L8">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="M8">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -915,7 +948,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -923,13 +956,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.237037037037037</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C9">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D9">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -941,19 +974,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>103</v>
+        <v>210</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K9">
-        <v>0.8214285714285714</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L9">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="M9">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -965,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -973,37 +1006,37 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1189189189189189</v>
+        <v>0.1166666666666667</v>
       </c>
       <c r="C10">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="D10">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E10">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>163</v>
+        <v>318</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K10">
-        <v>0.8148148148148148</v>
+        <v>0.7890625</v>
       </c>
       <c r="L10">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="M10">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1015,7 +1048,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1023,13 +1056,13 @@
         <v>25</v>
       </c>
       <c r="K11">
-        <v>0.7777777777777778</v>
+        <v>0.775</v>
       </c>
       <c r="L11">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="M11">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1041,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1049,13 +1082,13 @@
         <v>26</v>
       </c>
       <c r="K12">
-        <v>0.7647058823529411</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L12">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="M12">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1075,13 +1108,13 @@
         <v>27</v>
       </c>
       <c r="K13">
-        <v>0.76</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L13">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="M13">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1093,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1101,13 +1134,13 @@
         <v>28</v>
       </c>
       <c r="K14">
-        <v>0.75</v>
+        <v>0.7253521126760564</v>
       </c>
       <c r="L14">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="M14">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1119,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>6</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1127,13 +1160,13 @@
         <v>29</v>
       </c>
       <c r="K15">
-        <v>0.7272727272727273</v>
+        <v>0.7</v>
       </c>
       <c r="L15">
-        <v>24</v>
+        <v>112</v>
       </c>
       <c r="M15">
-        <v>24</v>
+        <v>112</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1145,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>9</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1153,13 +1186,13 @@
         <v>30</v>
       </c>
       <c r="K16">
-        <v>0.7241379310344828</v>
+        <v>0.6981132075471698</v>
       </c>
       <c r="L16">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="M16">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1171,7 +1204,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1179,13 +1212,13 @@
         <v>31</v>
       </c>
       <c r="K17">
-        <v>0.717948717948718</v>
+        <v>0.68</v>
       </c>
       <c r="L17">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="M17">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1197,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1205,13 +1238,13 @@
         <v>32</v>
       </c>
       <c r="K18">
-        <v>0.6986301369863014</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L18">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="M18">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1223,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1231,13 +1264,13 @@
         <v>33</v>
       </c>
       <c r="K19">
-        <v>0.6896551724137931</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L19">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M19">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1249,7 +1282,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1257,13 +1290,13 @@
         <v>34</v>
       </c>
       <c r="K20">
-        <v>0.6538461538461539</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="L20">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="M20">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1275,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1283,13 +1316,13 @@
         <v>35</v>
       </c>
       <c r="K21">
-        <v>0.6071428571428571</v>
+        <v>0.5796344647519582</v>
       </c>
       <c r="L21">
-        <v>17</v>
+        <v>222</v>
       </c>
       <c r="M21">
-        <v>17</v>
+        <v>222</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1301,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>11</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1309,13 +1342,13 @@
         <v>36</v>
       </c>
       <c r="K22">
-        <v>0.5868544600938967</v>
+        <v>0.5088235294117647</v>
       </c>
       <c r="L22">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="M22">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1327,7 +1360,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>88</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1335,13 +1368,13 @@
         <v>37</v>
       </c>
       <c r="K23">
-        <v>0.5666666666666667</v>
+        <v>0.5076923076923077</v>
       </c>
       <c r="L23">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="M23">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1353,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1361,13 +1394,13 @@
         <v>38</v>
       </c>
       <c r="K24">
-        <v>0.5503875968992248</v>
+        <v>0.5050847457627119</v>
       </c>
       <c r="L24">
-        <v>71</v>
+        <v>149</v>
       </c>
       <c r="M24">
-        <v>71</v>
+        <v>149</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1379,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>58</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1387,13 +1420,13 @@
         <v>39</v>
       </c>
       <c r="K25">
-        <v>0.5347222222222222</v>
+        <v>0.4831460674157304</v>
       </c>
       <c r="L25">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="M25">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1405,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>67</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1413,13 +1446,13 @@
         <v>40</v>
       </c>
       <c r="K26">
-        <v>0.4456521739130435</v>
+        <v>0.4794520547945205</v>
       </c>
       <c r="L26">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="M26">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1431,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1439,13 +1472,13 @@
         <v>41</v>
       </c>
       <c r="K27">
-        <v>0.4285714285714285</v>
+        <v>0.4487179487179487</v>
       </c>
       <c r="L27">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="M27">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1457,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1465,13 +1498,13 @@
         <v>42</v>
       </c>
       <c r="K28">
-        <v>0.3783783783783784</v>
+        <v>0.401673640167364</v>
       </c>
       <c r="L28">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="M28">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1483,7 +1516,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>23</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1491,13 +1524,13 @@
         <v>43</v>
       </c>
       <c r="K29">
-        <v>0.07804878048780488</v>
+        <v>0.09569377990430622</v>
       </c>
       <c r="L29">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="M29">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1517,13 +1550,13 @@
         <v>44</v>
       </c>
       <c r="K30">
-        <v>0.07575757575757576</v>
+        <v>0.08173076923076923</v>
       </c>
       <c r="L30">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="M30">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1535,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>183</v>
+        <v>382</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1543,13 +1576,13 @@
         <v>45</v>
       </c>
       <c r="K31">
-        <v>0.07177033492822966</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="L31">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="M31">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1561,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>194</v>
+        <v>385</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1569,25 +1602,25 @@
         <v>46</v>
       </c>
       <c r="K32">
-        <v>0.06787330316742081</v>
+        <v>0.06952965235173825</v>
       </c>
       <c r="L32">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="M32">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="N32">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>206</v>
+        <v>455</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1595,13 +1628,13 @@
         <v>47</v>
       </c>
       <c r="K33">
-        <v>0.04824561403508772</v>
+        <v>0.06764168190127971</v>
       </c>
       <c r="L33">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="M33">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1613,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>434</v>
+        <v>510</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1621,13 +1654,13 @@
         <v>48</v>
       </c>
       <c r="K34">
-        <v>0.04466501240694789</v>
+        <v>0.06152125279642058</v>
       </c>
       <c r="L34">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="M34">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1639,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>385</v>
+        <v>839</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1647,25 +1680,25 @@
         <v>49</v>
       </c>
       <c r="K35">
-        <v>0.04121863799283154</v>
+        <v>0.05673758865248227</v>
       </c>
       <c r="L35">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="M35">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="N35">
-        <v>0.87</v>
+        <v>0.97</v>
       </c>
       <c r="O35">
-        <v>0.13</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P35" t="b">
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>1070</v>
+        <v>931</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1673,25 +1706,25 @@
         <v>50</v>
       </c>
       <c r="K36">
-        <v>0.03667745415318231</v>
+        <v>0.04429860541427399</v>
       </c>
       <c r="L36">
-        <v>34</v>
+        <v>108</v>
       </c>
       <c r="M36">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="N36">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O36">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>893</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1699,25 +1732,25 @@
         <v>51</v>
       </c>
       <c r="K37">
-        <v>0.03611738148984198</v>
+        <v>0.04420350291909925</v>
       </c>
       <c r="L37">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="M37">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="N37">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="O37">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P37" t="b">
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>427</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1725,25 +1758,25 @@
         <v>52</v>
       </c>
       <c r="K38">
-        <v>0.03529411764705882</v>
+        <v>0.04215456674473068</v>
       </c>
       <c r="L38">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="M38">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="N38">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="O38">
-        <v>0.06000000000000005</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>410</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1751,25 +1784,25 @@
         <v>53</v>
       </c>
       <c r="K39">
-        <v>0.02877697841726619</v>
+        <v>0.04179566563467492</v>
       </c>
       <c r="L39">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M39">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="N39">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="P39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39">
-        <v>810</v>
+        <v>619</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1777,25 +1810,25 @@
         <v>54</v>
       </c>
       <c r="K40">
-        <v>0.01964735516372796</v>
+        <v>0.04031209362808843</v>
       </c>
       <c r="L40">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="M40">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="N40">
-        <v>0.91</v>
+        <v>0.97</v>
       </c>
       <c r="O40">
-        <v>0.08999999999999997</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>1946</v>
+        <v>738</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1803,25 +1836,25 @@
         <v>55</v>
       </c>
       <c r="K41">
-        <v>0.01723237597911227</v>
+        <v>0.03977272727272727</v>
       </c>
       <c r="L41">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M41">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N41">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="O41">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>1882</v>
+        <v>845</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1829,25 +1862,25 @@
         <v>56</v>
       </c>
       <c r="K42">
-        <v>0.01703940362087327</v>
+        <v>0.03710691823899371</v>
       </c>
       <c r="L42">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="M42">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="N42">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42">
-        <v>923</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1855,25 +1888,25 @@
         <v>57</v>
       </c>
       <c r="K43">
-        <v>0.01696712619300106</v>
+        <v>0.03678678678678678</v>
       </c>
       <c r="L43">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="M43">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="N43">
-        <v>0.62</v>
+        <v>0.92</v>
       </c>
       <c r="O43">
-        <v>0.38</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>927</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1881,25 +1914,25 @@
         <v>58</v>
       </c>
       <c r="K44">
-        <v>0.01444723618090452</v>
+        <v>0.03583815028901734</v>
       </c>
       <c r="L44">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="M44">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="N44">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O44">
-        <v>0.18</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>1569</v>
+        <v>834</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1907,25 +1940,25 @@
         <v>59</v>
       </c>
       <c r="K45">
-        <v>0.01157556270096463</v>
+        <v>0.03329633740288569</v>
       </c>
       <c r="L45">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M45">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N45">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>1537</v>
+        <v>871</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1933,25 +1966,311 @@
         <v>60</v>
       </c>
       <c r="K46">
-        <v>0.01032110091743119</v>
+        <v>0.03288550230599559</v>
       </c>
       <c r="L46">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="M46">
-        <v>20</v>
+        <v>173</v>
       </c>
       <c r="N46">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="O46">
-        <v>0.09999999999999998</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P46" t="b">
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>1726</v>
+        <v>4823</v>
+      </c>
+    </row>
+    <row r="47" spans="10:17">
+      <c r="J47" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K47">
+        <v>0.02907488986784141</v>
+      </c>
+      <c r="L47">
+        <v>33</v>
+      </c>
+      <c r="M47">
+        <v>38</v>
+      </c>
+      <c r="N47">
+        <v>0.87</v>
+      </c>
+      <c r="O47">
+        <v>0.13</v>
+      </c>
+      <c r="P47" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="48" spans="10:17">
+      <c r="J48" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K48">
+        <v>0.02571638501102131</v>
+      </c>
+      <c r="L48">
+        <v>35</v>
+      </c>
+      <c r="M48">
+        <v>37</v>
+      </c>
+      <c r="N48">
+        <v>0.95</v>
+      </c>
+      <c r="O48">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P48" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K49">
+        <v>0.02566096423017107</v>
+      </c>
+      <c r="L49">
+        <v>33</v>
+      </c>
+      <c r="M49">
+        <v>36</v>
+      </c>
+      <c r="N49">
+        <v>0.92</v>
+      </c>
+      <c r="O49">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P49" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K50">
+        <v>0.02553329023917259</v>
+      </c>
+      <c r="L50">
+        <v>79</v>
+      </c>
+      <c r="M50">
+        <v>92</v>
+      </c>
+      <c r="N50">
+        <v>0.86</v>
+      </c>
+      <c r="O50">
+        <v>0.14</v>
+      </c>
+      <c r="P50" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>3015</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K51">
+        <v>0.02523291925465838</v>
+      </c>
+      <c r="L51">
+        <v>130</v>
+      </c>
+      <c r="M51">
+        <v>143</v>
+      </c>
+      <c r="N51">
+        <v>0.91</v>
+      </c>
+      <c r="O51">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P51" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>5022</v>
+      </c>
+    </row>
+    <row r="52" spans="10:17">
+      <c r="J52" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K52">
+        <v>0.02282333051563821</v>
+      </c>
+      <c r="L52">
+        <v>54</v>
+      </c>
+      <c r="M52">
+        <v>67</v>
+      </c>
+      <c r="N52">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="O52">
+        <v>0.1899999999999999</v>
+      </c>
+      <c r="P52" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="53" spans="10:17">
+      <c r="J53" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K53">
+        <v>0.02106481481481481</v>
+      </c>
+      <c r="L53">
+        <v>91</v>
+      </c>
+      <c r="M53">
+        <v>99</v>
+      </c>
+      <c r="N53">
+        <v>0.92</v>
+      </c>
+      <c r="O53">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P53" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>4229</v>
+      </c>
+    </row>
+    <row r="54" spans="10:17">
+      <c r="J54" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K54">
+        <v>0.02043478260869565</v>
+      </c>
+      <c r="L54">
+        <v>47</v>
+      </c>
+      <c r="M54">
+        <v>56</v>
+      </c>
+      <c r="N54">
+        <v>0.84</v>
+      </c>
+      <c r="O54">
+        <v>0.16</v>
+      </c>
+      <c r="P54" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>2253</v>
+      </c>
+    </row>
+    <row r="55" spans="10:17">
+      <c r="J55" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K55">
+        <v>0.01950766372503484</v>
+      </c>
+      <c r="L55">
+        <v>42</v>
+      </c>
+      <c r="M55">
+        <v>47</v>
+      </c>
+      <c r="N55">
+        <v>0.89</v>
+      </c>
+      <c r="O55">
+        <v>0.11</v>
+      </c>
+      <c r="P55" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="56" spans="10:17">
+      <c r="J56" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K56">
+        <v>0.01672240802675585</v>
+      </c>
+      <c r="L56">
+        <v>40</v>
+      </c>
+      <c r="M56">
+        <v>42</v>
+      </c>
+      <c r="N56">
+        <v>0.95</v>
+      </c>
+      <c r="O56">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P56" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <v>2352</v>
+      </c>
+    </row>
+    <row r="57" spans="10:17">
+      <c r="J57" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K57">
+        <v>0.0157035175879397</v>
+      </c>
+      <c r="L57">
+        <v>50</v>
+      </c>
+      <c r="M57">
+        <v>67</v>
+      </c>
+      <c r="N57">
+        <v>0.75</v>
+      </c>
+      <c r="O57">
+        <v>0.25</v>
+      </c>
+      <c r="P57" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>3134</v>
       </c>
     </row>
   </sheetData>
